--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gifted Gift\Desktop\edutech-report-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32990B9A-4BC2-4067-A78C-BBF38DCB3C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A3FD70-7905-4C34-ADF7-5C0C908F1334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,12 +493,19 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
